--- a/data/Английская художественная литература.xlsx
+++ b/data/Английская художественная литература.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\лабэксель\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DF19C-8553-4802-AF40-0F9BEBF69577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="11460" windowHeight="7704"/>
+    <workbookView xWindow="3503" yWindow="1612" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -138,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,6 +189,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -231,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +273,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +325,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -474,16 +517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,7 +550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,7 +558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,7 +566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,7 +582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,7 +590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,7 +598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -563,7 +606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -571,7 +614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -579,7 +622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -587,7 +630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -595,7 +638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -603,7 +646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -611,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -619,7 +662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -627,7 +670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -635,7 +678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -647,24 +690,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
